--- a/公司文件/付款相关/物料管理.xlsx
+++ b/公司文件/付款相关/物料管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,6 +513,9 @@
       </c>
       <c r="D4">
         <v>17600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
